--- a/teaching/traditional_assets/database/data/jordan/jordan_investments_asset_management.xlsx
+++ b/teaching/traditional_assets/database/data/jordan/jordan_investments_asset_management.xlsx
@@ -591,46 +591,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.05899999999999998</v>
+        <v>-0.462</v>
       </c>
       <c r="E2">
-        <v>0.259</v>
+        <v>0.234</v>
       </c>
       <c r="G2">
-        <v>0.2647058823529412</v>
+        <v>-1.300567107750473</v>
       </c>
       <c r="H2">
-        <v>0.2647058823529412</v>
+        <v>-1.300567107750473</v>
       </c>
       <c r="I2">
-        <v>-0.05310457516339864</v>
+        <v>-1.321361058601134</v>
       </c>
       <c r="J2">
-        <v>-0.05152629233511581</v>
+        <v>-1.295350014140482</v>
       </c>
       <c r="K2">
-        <v>4.509</v>
+        <v>-0.615</v>
       </c>
       <c r="L2">
-        <v>3.683823529411765</v>
+        <v>-1.162570888468809</v>
       </c>
       <c r="M2">
-        <v>0.396</v>
+        <v>0.198</v>
       </c>
       <c r="N2">
-        <v>0.03152866242038217</v>
+        <v>0.01554160125588697</v>
       </c>
       <c r="O2">
-        <v>0.08782435129740519</v>
+        <v>-0.3219512195121951</v>
       </c>
       <c r="P2">
-        <v>0.396</v>
+        <v>0.198</v>
       </c>
       <c r="Q2">
-        <v>0.03152866242038217</v>
+        <v>0.01554160125588697</v>
       </c>
       <c r="R2">
-        <v>0.08782435129740519</v>
+        <v>-0.3219512195121951</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,73 +639,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>2.533</v>
+        <v>2.731</v>
       </c>
       <c r="V2">
-        <v>0.201671974522293</v>
+        <v>0.2143642072213501</v>
       </c>
       <c r="W2">
-        <v>0.04927116224750205</v>
+        <v>0.01449404761904762</v>
       </c>
       <c r="X2">
-        <v>0.07385063820818202</v>
+        <v>0.05921155817013783</v>
       </c>
       <c r="Y2">
-        <v>-0.02457947596067997</v>
+        <v>-0.04471751055109021</v>
       </c>
       <c r="Z2">
-        <v>0.06519307589880161</v>
+        <v>0.02356977365888434</v>
       </c>
       <c r="AA2">
-        <v>-0.002252252252252252</v>
+        <v>-0.002380952380952381</v>
       </c>
       <c r="AB2">
-        <v>0.07317835817904435</v>
+        <v>0.05921155817013783</v>
       </c>
       <c r="AC2">
-        <v>-0.07440137919029058</v>
+        <v>-0.06159251055109021</v>
       </c>
       <c r="AD2">
-        <v>0.781</v>
+        <v>0.409</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.781</v>
+        <v>0.409</v>
       </c>
       <c r="AG2">
-        <v>-1.752</v>
+        <v>-2.322</v>
       </c>
       <c r="AH2">
-        <v>0.05854133873023012</v>
+        <v>0.03110502699825081</v>
       </c>
       <c r="AI2">
-        <v>0.03198067237213874</v>
+        <v>0.01770639421619983</v>
       </c>
       <c r="AJ2">
-        <v>-0.1621021465581051</v>
+        <v>-0.2228834709157228</v>
       </c>
       <c r="AK2">
-        <v>-0.08004385964912279</v>
+        <v>-0.1140023566378633</v>
       </c>
       <c r="AL2">
-        <v>0.147</v>
+        <v>0.031</v>
       </c>
       <c r="AM2">
-        <v>0.147</v>
+        <v>0.031</v>
       </c>
       <c r="AN2">
-        <v>21.10810810810814</v>
+        <v>-1.025062656641604</v>
       </c>
       <c r="AO2">
-        <v>-0.4421768707482988</v>
+        <v>-22.54838709677419</v>
       </c>
       <c r="AP2">
-        <v>-47.35135135135143</v>
+        <v>5.819548872180451</v>
       </c>
       <c r="AQ2">
-        <v>-0.4421768707482988</v>
+        <v>-22.54838709677419</v>
       </c>
     </row>
     <row r="3">
@@ -725,121 +725,115 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.344</v>
-      </c>
-      <c r="E3">
-        <v>-0.121</v>
+        <v>-0.462</v>
       </c>
       <c r="G3">
-        <v>0.6519607843137255</v>
+        <v>0.2913256955810147</v>
       </c>
       <c r="H3">
-        <v>0.6519607843137255</v>
+        <v>0.2913256955810147</v>
       </c>
       <c r="I3">
-        <v>0.5088235294117647</v>
+        <v>0.2242225859247136</v>
       </c>
       <c r="J3">
-        <v>0.5088235294117647</v>
+        <v>0.2242225859247136</v>
       </c>
       <c r="K3">
-        <v>0.243</v>
+        <v>0.135</v>
       </c>
       <c r="L3">
-        <v>0.238235294117647</v>
+        <v>0.220949263502455</v>
       </c>
       <c r="M3">
+        <v>-0</v>
+      </c>
+      <c r="N3">
+        <v>-0</v>
+      </c>
+      <c r="O3">
+        <v>-0</v>
+      </c>
+      <c r="P3">
+        <v>-0</v>
+      </c>
+      <c r="Q3">
+        <v>-0</v>
+      </c>
+      <c r="R3">
+        <v>-0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0.148</v>
+      </c>
+      <c r="V3">
+        <v>0.06666666666666665</v>
+      </c>
+      <c r="W3">
+        <v>0.03375</v>
+      </c>
+      <c r="X3">
+        <v>0.05921155817013783</v>
+      </c>
+      <c r="Y3">
+        <v>-0.02546155817013783</v>
+      </c>
+      <c r="Z3">
+        <v>0.1378921236741142</v>
+      </c>
+      <c r="AA3">
+        <v>0.03091852854886031</v>
+      </c>
+      <c r="AB3">
+        <v>0.05921155817013783</v>
+      </c>
+      <c r="AC3">
+        <v>-0.02829302962127753</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>-0.148</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>-0.07142857142857142</v>
+      </c>
+      <c r="AK3">
+        <v>-0.03707414829659319</v>
+      </c>
+      <c r="AL3">
         <v>0.001</v>
       </c>
-      <c r="N3">
-        <v>0.0005617977528089888</v>
-      </c>
-      <c r="O3">
-        <v>0.00411522633744856</v>
-      </c>
-      <c r="P3">
+      <c r="AM3">
         <v>0.001</v>
       </c>
-      <c r="Q3">
-        <v>0.0005617977528089888</v>
-      </c>
-      <c r="R3">
-        <v>0.00411522633744856</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0.027</v>
-      </c>
-      <c r="V3">
-        <v>0.0151685393258427</v>
-      </c>
-      <c r="W3">
-        <v>0.06411609498680738</v>
-      </c>
-      <c r="X3">
-        <v>0.07555214947832573</v>
-      </c>
-      <c r="Y3">
-        <v>-0.01143605449151834</v>
-      </c>
-      <c r="Z3">
-        <v>0.2107438016528926</v>
-      </c>
-      <c r="AA3">
-        <v>0.1072314049586777</v>
-      </c>
-      <c r="AB3">
-        <v>0.07420758942005037</v>
-      </c>
-      <c r="AC3">
-        <v>0.03302381553862732</v>
-      </c>
-      <c r="AD3">
-        <v>0.143</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0.143</v>
-      </c>
-      <c r="AG3">
-        <v>0.116</v>
-      </c>
-      <c r="AH3">
-        <v>0.07436297451898075</v>
-      </c>
-      <c r="AI3">
-        <v>0.03519566822544917</v>
-      </c>
-      <c r="AJ3">
-        <v>0.06118143459915612</v>
-      </c>
-      <c r="AK3">
-        <v>0.02874132804757185</v>
-      </c>
-      <c r="AL3">
-        <v>0.134</v>
-      </c>
-      <c r="AM3">
-        <v>0.134</v>
-      </c>
       <c r="AN3">
-        <v>0.2328990228013029</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>3.873134328358209</v>
+        <v>137</v>
       </c>
       <c r="AP3">
-        <v>0.1889250814332248</v>
+        <v>-0.6727272727272727</v>
       </c>
       <c r="AQ3">
-        <v>3.873134328358209</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4">
@@ -859,10 +853,10 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.226</v>
+        <v>0.105</v>
       </c>
       <c r="E4">
-        <v>0.259</v>
+        <v>0.234</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -877,28 +871,28 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.126</v>
+        <v>0.119</v>
       </c>
       <c r="L4">
-        <v>0.6086956521739131</v>
+        <v>0.7041420118343195</v>
       </c>
       <c r="M4">
-        <v>0.395</v>
+        <v>0.198</v>
       </c>
       <c r="N4">
-        <v>0.1282467532467532</v>
+        <v>0.05484764542936289</v>
       </c>
       <c r="O4">
-        <v>3.134920634920635</v>
+        <v>1.663865546218487</v>
       </c>
       <c r="P4">
-        <v>0.395</v>
+        <v>0.198</v>
       </c>
       <c r="Q4">
-        <v>0.1282467532467532</v>
+        <v>0.05484764542936289</v>
       </c>
       <c r="R4">
-        <v>3.134920634920635</v>
+        <v>1.663865546218487</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -907,31 +901,31 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>1.92</v>
+        <v>1.67</v>
       </c>
       <c r="V4">
-        <v>0.6233766233766234</v>
+        <v>0.4626038781163435</v>
       </c>
       <c r="W4">
-        <v>0.03442622950819672</v>
+        <v>0.03801916932907348</v>
       </c>
       <c r="X4">
-        <v>0.07214912693803832</v>
+        <v>0.05921155817013783</v>
       </c>
       <c r="Y4">
-        <v>-0.0377228974298416</v>
+        <v>-0.02119238884106435</v>
       </c>
       <c r="Z4">
-        <v>0.2406976744186045</v>
+        <v>0.1251851851851852</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.07214912693803832</v>
+        <v>0.05921155817013783</v>
       </c>
       <c r="AC4">
-        <v>-0.07214912693803832</v>
+        <v>-0.05921155817013783</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -943,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>-1.92</v>
+        <v>-1.67</v>
       </c>
       <c r="AH4">
         <v>0</v>
@@ -952,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="AJ4">
-        <v>-1.655172413793103</v>
+        <v>-0.8608247422680412</v>
       </c>
       <c r="AK4">
-        <v>-1.641025641025641</v>
+        <v>-1.403361344537815</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -980,23 +974,26 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="D5">
+        <v>-0.512</v>
+      </c>
       <c r="G5">
-        <v>27.66666666666667</v>
+        <v>-23</v>
       </c>
       <c r="H5">
-        <v>27.66666666666667</v>
+        <v>-23</v>
       </c>
       <c r="I5">
-        <v>6.666666666666667</v>
+        <v>-7</v>
       </c>
       <c r="J5">
-        <v>6.666666666666667</v>
+        <v>-7</v>
       </c>
       <c r="K5">
-        <v>-0.02</v>
+        <v>-0.021</v>
       </c>
       <c r="L5">
-        <v>6.666666666666667</v>
+        <v>-7</v>
       </c>
       <c r="M5">
         <v>-0</v>
@@ -1026,25 +1023,25 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>-0.004504504504504504</v>
+        <v>-0.004761904761904762</v>
       </c>
       <c r="X5">
-        <v>0.07214912693803832</v>
+        <v>0.05921155817013783</v>
       </c>
       <c r="Y5">
-        <v>-0.07665363144254282</v>
+        <v>-0.06397346293204259</v>
       </c>
       <c r="Z5">
-        <v>-0.0006756756756756756</v>
+        <v>0.0006802721088435374</v>
       </c>
       <c r="AA5">
-        <v>-0.004504504504504504</v>
+        <v>-0.004761904761904762</v>
       </c>
       <c r="AB5">
-        <v>0.07214912693803832</v>
+        <v>0.05921155817013783</v>
       </c>
       <c r="AC5">
-        <v>-0.07665363144254282</v>
+        <v>-0.06397346293204259</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -1075,12 +1072,6 @@
       </c>
       <c r="AM5">
         <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>-0</v>
-      </c>
-      <c r="AP5">
-        <v>-0</v>
       </c>
     </row>
     <row r="6">
@@ -1099,11 +1090,23 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="E6">
-        <v>1.318</v>
+      <c r="G6">
+        <v>3.137795275590551</v>
+      </c>
+      <c r="H6">
+        <v>3.137795275590551</v>
+      </c>
+      <c r="I6">
+        <v>3.208661417322834</v>
+      </c>
+      <c r="J6">
+        <v>3.208661417322834</v>
       </c>
       <c r="K6">
-        <v>4.16</v>
+        <v>-0.848</v>
+      </c>
+      <c r="L6">
+        <v>3.338582677165354</v>
       </c>
       <c r="M6">
         <v>-0</v>
@@ -1112,7 +1115,7 @@
         <v>-0</v>
       </c>
       <c r="O6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>-0</v>
@@ -1121,79 +1124,79 @@
         <v>-0</v>
       </c>
       <c r="R6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0.586</v>
+        <v>0.913</v>
       </c>
       <c r="V6">
-        <v>0.09331210191082802</v>
+        <v>0.1663023679417122</v>
       </c>
       <c r="W6">
-        <v>0.5142150803461063</v>
+        <v>-0.07008264462809917</v>
       </c>
       <c r="X6">
-        <v>0.0764525082101999</v>
+        <v>0.06218625067164404</v>
       </c>
       <c r="Y6">
-        <v>0.4377625721359064</v>
+        <v>-0.1322688952997432</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>-0.02072961723659512</v>
       </c>
       <c r="AA6">
-        <v>-0.06531557614360162</v>
+        <v>-0.06651432302293316</v>
       </c>
       <c r="AB6">
-        <v>0.07425931167872295</v>
+        <v>0.06174418378588246</v>
       </c>
       <c r="AC6">
-        <v>-0.1395748878223246</v>
+        <v>-0.1282585068088156</v>
       </c>
       <c r="AD6">
-        <v>0.638</v>
+        <v>0.409</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.638</v>
+        <v>0.409</v>
       </c>
       <c r="AG6">
-        <v>0.05200000000000005</v>
+        <v>-0.504</v>
       </c>
       <c r="AH6">
-        <v>0.09222318589187627</v>
+        <v>0.06933378538735378</v>
       </c>
       <c r="AI6">
-        <v>0.04969621436360804</v>
+        <v>0.0349303954223247</v>
       </c>
       <c r="AJ6">
-        <v>0.008212255211623507</v>
+        <v>-0.1010830324909747</v>
       </c>
       <c r="AK6">
-        <v>0.004244205027750575</v>
+        <v>-0.04668395702111893</v>
       </c>
       <c r="AL6">
-        <v>0.013</v>
+        <v>0.03</v>
       </c>
       <c r="AM6">
-        <v>0.013</v>
+        <v>0.03</v>
       </c>
       <c r="AN6">
-        <v>-1.145421903052064</v>
+        <v>-0.6607431340872374</v>
       </c>
       <c r="AO6">
-        <v>-43.38461538461538</v>
+        <v>-27.16666666666666</v>
       </c>
       <c r="AP6">
-        <v>-0.09335727109515268</v>
+        <v>0.81421647819063</v>
       </c>
       <c r="AQ6">
-        <v>-43.38461538461538</v>
+        <v>-27.16666666666666</v>
       </c>
     </row>
   </sheetData>
